--- a/testdata/GtplTestdata.xlsx
+++ b/testdata/GtplTestdata.xlsx
@@ -3,16 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{A537EFE9-B9DC-40E0-8982-D8788DBC1E84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{DD605CB6-F75C-4858-B307-B6584B06936C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="23304" windowHeight="13224" xr2:uid="{FCD4B355-3713-46D9-BF02-04439E4AFE52}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="23304" windowHeight="13224" activeTab="1" xr2:uid="{FCD4B355-3713-46D9-BF02-04439E4AFE52}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:I13"/>
+  <oleSize ref="A1:M14"/>
   <extLst>
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
   <si>
     <t>Login</t>
   </si>
@@ -114,40 +114,22 @@
     <t>EditAccount</t>
   </si>
   <si>
-    <t>39185</t>
-  </si>
-  <si>
-    <t>82738</t>
-  </si>
-  <si>
     <t>salman</t>
   </si>
   <si>
     <t>salman123</t>
   </si>
   <si>
-    <t>16992</t>
-  </si>
-  <si>
-    <t>82807</t>
-  </si>
-  <si>
-    <t>15531</t>
-  </si>
-  <si>
-    <t>82808</t>
-  </si>
-  <si>
-    <t>18726</t>
-  </si>
-  <si>
-    <t>82809</t>
-  </si>
-  <si>
-    <t>80033</t>
-  </si>
-  <si>
-    <t>49173</t>
+    <t>96139</t>
+  </si>
+  <si>
+    <t>83430</t>
+  </si>
+  <si>
+    <t>9282</t>
+  </si>
+  <si>
+    <t>83485</t>
   </si>
 </sst>
 </file>
@@ -535,7 +517,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5B6FFF8-D1F4-42DF-8572-2809AE45F382}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -580,10 +562,10 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -727,7 +709,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA9661F7-4785-4413-8B8F-0BFFB24CB9CE}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -747,10 +729,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
